--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Itga4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H2">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I2">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J2">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.294352522144792</v>
+        <v>0.317263</v>
       </c>
       <c r="N2">
-        <v>0.294352522144792</v>
+        <v>0.634526</v>
       </c>
       <c r="O2">
-        <v>0.002545680356091186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P2">
-        <v>0.002545680356091186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q2">
-        <v>0.5108556935253634</v>
+        <v>0.5552855999625</v>
       </c>
       <c r="R2">
-        <v>0.5108556935253634</v>
+        <v>2.22114239985</v>
       </c>
       <c r="S2">
-        <v>0.0001953174855716863</v>
+        <v>0.0001577563371689646</v>
       </c>
       <c r="T2">
-        <v>0.0001953174855716863</v>
+        <v>9.067144730247704E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H3">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I3">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J3">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>42.976043056057</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N3">
-        <v>42.976043056057</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.3716743032917443</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P3">
-        <v>0.3716743032917443</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q3">
-        <v>74.58592887333383</v>
+        <v>0.0497528345875</v>
       </c>
       <c r="R3">
-        <v>74.58592887333383</v>
+        <v>0.2985170075249999</v>
       </c>
       <c r="S3">
-        <v>0.02851673431695818</v>
+        <v>1.413475326719697E-05</v>
       </c>
       <c r="T3">
-        <v>0.02851673431695818</v>
+        <v>1.218605755242171E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H4">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I4">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J4">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.4144540386251</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N4">
-        <v>70.4144540386251</v>
+        <v>148.173461</v>
       </c>
       <c r="O4">
-        <v>0.6089728435988707</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P4">
-        <v>0.6089728435988707</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q4">
-        <v>122.2059335181005</v>
+        <v>86.44624931566248</v>
       </c>
       <c r="R4">
-        <v>122.2059335181005</v>
+        <v>518.6774958939749</v>
       </c>
       <c r="S4">
-        <v>0.04672347975996665</v>
+        <v>0.02455933244974299</v>
       </c>
       <c r="T4">
-        <v>0.04672347975996665</v>
+        <v>0.02117344625860427</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H5">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I5">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J5">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.570626390767208</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N5">
-        <v>0.570626390767208</v>
+        <v>212.597199</v>
       </c>
       <c r="O5">
-        <v>0.004935009162003186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P5">
-        <v>0.004935009162003186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q5">
-        <v>0.9903354606075513</v>
+        <v>124.0318633615875</v>
       </c>
       <c r="R5">
-        <v>0.9903354606075513</v>
+        <v>744.1911801695251</v>
       </c>
       <c r="S5">
-        <v>0.0003786388886135438</v>
+        <v>0.03523738497358288</v>
       </c>
       <c r="T5">
-        <v>0.0003786388886135438</v>
+        <v>0.03037936306121849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H6">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I6">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J6">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3727573016189</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N6">
-        <v>1.3727573016189</v>
+        <v>1.841336</v>
       </c>
       <c r="O6">
-        <v>0.01187216359129066</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P6">
-        <v>0.01187216359129066</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q6">
-        <v>2.382452435775527</v>
+        <v>1.0742584391</v>
       </c>
       <c r="R6">
-        <v>2.382452435775527</v>
+        <v>6.4455506346</v>
       </c>
       <c r="S6">
-        <v>0.0009108924988945282</v>
+        <v>0.0003051962387223982</v>
       </c>
       <c r="T6">
-        <v>0.0009108924988945282</v>
+        <v>0.0002631201874945295</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.7587998447834</v>
+        <v>1.7502375</v>
       </c>
       <c r="H7">
-        <v>2.7587998447834</v>
+        <v>3.500475</v>
       </c>
       <c r="I7">
-        <v>0.1219626830210029</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J7">
-        <v>0.1219626830210029</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.294352522144792</v>
+        <v>1.3859455</v>
       </c>
       <c r="N7">
-        <v>0.294352522144792</v>
+        <v>2.771891</v>
       </c>
       <c r="O7">
-        <v>0.002545680356091186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P7">
-        <v>0.002545680356091186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q7">
-        <v>0.8120596924046545</v>
+        <v>2.42573378705625</v>
       </c>
       <c r="R7">
-        <v>0.8120596924046545</v>
+        <v>9.702935148225</v>
       </c>
       <c r="S7">
-        <v>0.000310478006342743</v>
+        <v>0.0006891496505921247</v>
       </c>
       <c r="T7">
-        <v>0.000310478006342743</v>
+        <v>0.0003960930974218714</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H8">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J8">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.976043056057</v>
+        <v>0.317263</v>
       </c>
       <c r="N8">
-        <v>42.976043056057</v>
+        <v>0.634526</v>
       </c>
       <c r="O8">
-        <v>0.3716743032917443</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P8">
-        <v>0.3716743032917443</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q8">
-        <v>118.5623009124548</v>
+        <v>1.014706060056</v>
       </c>
       <c r="R8">
-        <v>118.5623009124548</v>
+        <v>6.088236360336</v>
       </c>
       <c r="S8">
-        <v>0.04533039523942309</v>
+        <v>0.0002882774402008559</v>
       </c>
       <c r="T8">
-        <v>0.04533039523942309</v>
+        <v>0.0002485339086537227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H9">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J9">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>70.4144540386251</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N9">
-        <v>70.4144540386251</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.6089728435988707</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P9">
-        <v>0.6089728435988707</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q9">
-        <v>194.2593848722668</v>
+        <v>0.09091628301599999</v>
       </c>
       <c r="R9">
-        <v>194.2593848722668</v>
+        <v>0.818246547144</v>
       </c>
       <c r="S9">
-        <v>0.07427196189224781</v>
+        <v>2.582926659468516E-05</v>
       </c>
       <c r="T9">
-        <v>0.07427196189224781</v>
+        <v>3.340245032682793E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H10">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J10">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.570626390767208</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N10">
-        <v>0.570626390767208</v>
+        <v>148.173461</v>
       </c>
       <c r="O10">
-        <v>0.004935009162003186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P10">
-        <v>0.004935009162003186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q10">
-        <v>1.574243998277885</v>
+        <v>157.968319465944</v>
       </c>
       <c r="R10">
-        <v>1.574243998277885</v>
+        <v>1421.714875193496</v>
       </c>
       <c r="S10">
-        <v>0.0006018869581311395</v>
+        <v>0.04487871370942651</v>
       </c>
       <c r="T10">
-        <v>0.0006018869581311395</v>
+        <v>0.05803722687656603</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H11">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J11">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3727573016189</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N11">
-        <v>1.3727573016189</v>
+        <v>212.597199</v>
       </c>
       <c r="O11">
-        <v>0.01187216359129066</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P11">
-        <v>0.01187216359129066</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q11">
-        <v>3.7871626306315</v>
+        <v>226.650724242696</v>
       </c>
       <c r="R11">
-        <v>3.7871626306315</v>
+        <v>2039.856518184264</v>
       </c>
       <c r="S11">
-        <v>0.001447960924858073</v>
+        <v>0.06439134757975977</v>
       </c>
       <c r="T11">
-        <v>0.001447960924858073</v>
+        <v>0.08327099730555297</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.49161211072663</v>
+        <v>3.198312</v>
       </c>
       <c r="H12">
-        <v>2.49161211072663</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1101506869541319</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J12">
-        <v>0.1101506869541319</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.294352522144792</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N12">
-        <v>0.294352522144792</v>
+        <v>1.841336</v>
       </c>
       <c r="O12">
-        <v>0.002545680356091186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P12">
-        <v>0.002545680356091186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q12">
-        <v>0.7334123089988923</v>
+        <v>1.963055674944</v>
       </c>
       <c r="R12">
-        <v>0.7334123089988923</v>
+        <v>17.667501074496</v>
       </c>
       <c r="S12">
-        <v>0.0002804084399890831</v>
+        <v>0.0005577030503921386</v>
       </c>
       <c r="T12">
-        <v>0.0002804084399890831</v>
+        <v>0.0007212225081790362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.49161211072663</v>
+        <v>3.198312</v>
       </c>
       <c r="H13">
-        <v>2.49161211072663</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1101506869541319</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J13">
-        <v>0.1101506869541319</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.976043056057</v>
+        <v>1.3859455</v>
       </c>
       <c r="N13">
-        <v>42.976043056057</v>
+        <v>2.771891</v>
       </c>
       <c r="O13">
-        <v>0.3716743032917443</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P13">
-        <v>0.3716743032917443</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q13">
-        <v>107.0796293495807</v>
+        <v>4.432686123996</v>
       </c>
       <c r="R13">
-        <v>107.0796293495807</v>
+        <v>26.596116743976</v>
       </c>
       <c r="S13">
-        <v>0.04094017983078399</v>
+        <v>0.001259323718800791</v>
       </c>
       <c r="T13">
-        <v>0.04094017983078399</v>
+        <v>0.001085706345511573</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H14">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I14">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J14">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>70.4144540386251</v>
+        <v>0.317263</v>
       </c>
       <c r="N14">
-        <v>70.4144540386251</v>
+        <v>0.634526</v>
       </c>
       <c r="O14">
-        <v>0.6089728435988707</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P14">
-        <v>0.6089728435988707</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q14">
-        <v>175.445506452842</v>
+        <v>0.8136589293056667</v>
       </c>
       <c r="R14">
-        <v>175.445506452842</v>
+        <v>4.881953575834</v>
       </c>
       <c r="S14">
-        <v>0.06707877705882671</v>
+        <v>0.000231160059617523</v>
       </c>
       <c r="T14">
-        <v>0.06707877705882671</v>
+        <v>0.0001992910478924114</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H15">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I15">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J15">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.570626390767208</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N15">
-        <v>0.570626390767208</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.004935009162003186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P15">
-        <v>0.004935009162003186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q15">
-        <v>1.421779625935802</v>
+        <v>0.07290273351788888</v>
       </c>
       <c r="R15">
-        <v>1.421779625935802</v>
+        <v>0.656124601661</v>
       </c>
       <c r="S15">
-        <v>0.0005435946493195855</v>
+        <v>2.071162697207337E-05</v>
       </c>
       <c r="T15">
-        <v>0.0005435946493195855</v>
+        <v>2.678431029337955E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H16">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I16">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J16">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.3727573016189</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N16">
-        <v>1.3727573016189</v>
+        <v>148.173461</v>
       </c>
       <c r="O16">
-        <v>0.01187216359129066</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P16">
-        <v>0.01187216359129066</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q16">
-        <v>3.420378717802061</v>
+        <v>126.6695240528888</v>
       </c>
       <c r="R16">
-        <v>3.420378717802061</v>
+        <v>1140.025716475999</v>
       </c>
       <c r="S16">
-        <v>0.001307726975212499</v>
+        <v>0.03598674294249535</v>
       </c>
       <c r="T16">
-        <v>0.001307726975212499</v>
+        <v>0.04653811555796822</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.45568252250658</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H17">
-        <v>2.45568252250658</v>
+        <v>7.693859</v>
       </c>
       <c r="I17">
-        <v>0.1085622901056098</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J17">
-        <v>0.1085622901056098</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.294352522144792</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N17">
-        <v>0.294352522144792</v>
+        <v>212.597199</v>
       </c>
       <c r="O17">
-        <v>0.002545680356091186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P17">
-        <v>0.002545680356091186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q17">
-        <v>0.7228363440866968</v>
+        <v>181.743652544549</v>
       </c>
       <c r="R17">
-        <v>0.7228363440866968</v>
+        <v>1635.692872900941</v>
       </c>
       <c r="S17">
-        <v>0.0002763648893341234</v>
+        <v>0.05163327291590721</v>
       </c>
       <c r="T17">
-        <v>0.0002763648893341234</v>
+        <v>0.06677223402618886</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.45568252250658</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H18">
-        <v>2.45568252250658</v>
+        <v>7.693859</v>
       </c>
       <c r="I18">
-        <v>0.1085622901056098</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J18">
-        <v>0.1085622901056098</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.976043056057</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N18">
-        <v>42.976043056057</v>
+        <v>1.841336</v>
       </c>
       <c r="O18">
-        <v>0.3716743032917443</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P18">
-        <v>0.3716743032917443</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q18">
-        <v>105.5355178192494</v>
+        <v>1.574108839513778</v>
       </c>
       <c r="R18">
-        <v>105.5355178192494</v>
+        <v>14.166979555624</v>
       </c>
       <c r="S18">
-        <v>0.04034981353875875</v>
+        <v>0.0004472034658268705</v>
       </c>
       <c r="T18">
-        <v>0.04034981353875875</v>
+        <v>0.0005783242624605157</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.45568252250658</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H19">
-        <v>2.45568252250658</v>
+        <v>7.693859</v>
       </c>
       <c r="I19">
-        <v>0.1085622901056098</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J19">
-        <v>0.1085622901056098</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.4144540386251</v>
+        <v>1.3859455</v>
       </c>
       <c r="N19">
-        <v>70.4144540386251</v>
+        <v>2.771891</v>
       </c>
       <c r="O19">
-        <v>0.6089728435988707</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P19">
-        <v>0.6089728435988707</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q19">
-        <v>172.9155441144945</v>
+        <v>3.554423086228167</v>
       </c>
       <c r="R19">
-        <v>172.9155441144945</v>
+        <v>21.326538517369</v>
       </c>
       <c r="S19">
-        <v>0.06611148651321874</v>
+        <v>0.001009809667079482</v>
       </c>
       <c r="T19">
-        <v>0.06611148651321874</v>
+        <v>0.0008705916889671094</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H20">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I20">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J20">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.570626390767208</v>
+        <v>0.317263</v>
       </c>
       <c r="N20">
-        <v>0.570626390767208</v>
+        <v>0.634526</v>
       </c>
       <c r="O20">
-        <v>0.004935009162003186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P20">
-        <v>0.004935009162003186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q20">
-        <v>1.401277254688043</v>
+        <v>0.8363861700650002</v>
       </c>
       <c r="R20">
-        <v>1.401277254688043</v>
+        <v>5.01831702039</v>
       </c>
       <c r="S20">
-        <v>0.0005357558963192321</v>
+        <v>0.000237616856365704</v>
       </c>
       <c r="T20">
-        <v>0.0005357558963192321</v>
+        <v>0.0002048576747227662</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H21">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I21">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J21">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.3727573016189</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N21">
-        <v>1.3727573016189</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.01187216359129066</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P21">
-        <v>0.01187216359129066</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q21">
-        <v>3.371056113228827</v>
+        <v>0.07493906338166667</v>
       </c>
       <c r="R21">
-        <v>3.371056113228827</v>
+        <v>0.674451570435</v>
       </c>
       <c r="S21">
-        <v>0.001288869267978955</v>
+        <v>2.129014717969095E-05</v>
       </c>
       <c r="T21">
-        <v>0.001288869267978955</v>
+        <v>2.753245358375035E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.902175618163821</v>
+        <v>2.636255</v>
       </c>
       <c r="H22">
-        <v>0.902175618163821</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I22">
-        <v>0.03988392240758237</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J22">
-        <v>0.03988392240758237</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.294352522144792</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N22">
-        <v>0.294352522144792</v>
+        <v>148.173461</v>
       </c>
       <c r="O22">
-        <v>0.002545680356091186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P22">
-        <v>0.002545680356091186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q22">
-        <v>0.2655576686240576</v>
+        <v>130.2076758095183</v>
       </c>
       <c r="R22">
-        <v>0.2655576686240576</v>
+        <v>1171.869082285665</v>
       </c>
       <c r="S22">
-        <v>0.0001015317177968475</v>
+        <v>0.03699192993367883</v>
       </c>
       <c r="T22">
-        <v>0.0001015317177968475</v>
+        <v>0.04783802503929622</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.902175618163821</v>
+        <v>2.636255</v>
       </c>
       <c r="H23">
-        <v>0.902175618163821</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I23">
-        <v>0.03988392240758237</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J23">
-        <v>0.03988392240758237</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>42.976043056057</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N23">
-        <v>42.976043056057</v>
+        <v>212.597199</v>
       </c>
       <c r="O23">
-        <v>0.3716743032917443</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P23">
-        <v>0.3716743032917443</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q23">
-        <v>38.77193821033321</v>
+        <v>186.820142949915</v>
       </c>
       <c r="R23">
-        <v>38.77193821033321</v>
+        <v>1681.381286549235</v>
       </c>
       <c r="S23">
-        <v>0.01482382907338017</v>
+        <v>0.0530755010811577</v>
       </c>
       <c r="T23">
-        <v>0.01482382907338017</v>
+        <v>0.06863732587744741</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.902175618163821</v>
+        <v>2.636255</v>
       </c>
       <c r="H24">
-        <v>0.902175618163821</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I24">
-        <v>0.03988392240758237</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J24">
-        <v>0.03988392240758237</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>70.4144540386251</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N24">
-        <v>70.4144540386251</v>
+        <v>1.841336</v>
       </c>
       <c r="O24">
-        <v>0.6089728435988707</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P24">
-        <v>0.6089728435988707</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q24">
-        <v>63.52620359996455</v>
+        <v>1.618077078893334</v>
       </c>
       <c r="R24">
-        <v>63.52620359996455</v>
+        <v>14.56269371004</v>
       </c>
       <c r="S24">
-        <v>0.02428822564242215</v>
+        <v>0.0004596948187392373</v>
       </c>
       <c r="T24">
-        <v>0.02428822564242215</v>
+        <v>0.0005944781007292363</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.902175618163821</v>
+        <v>2.636255</v>
       </c>
       <c r="H25">
-        <v>0.902175618163821</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I25">
-        <v>0.03988392240758237</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J25">
-        <v>0.03988392240758237</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.570626390767208</v>
+        <v>1.3859455</v>
       </c>
       <c r="N25">
-        <v>0.570626390767208</v>
+        <v>2.771891</v>
       </c>
       <c r="O25">
-        <v>0.004935009162003186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P25">
-        <v>0.004935009162003186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q25">
-        <v>0.5148052168309959</v>
+        <v>3.6537057541025</v>
       </c>
       <c r="R25">
-        <v>0.5148052168309959</v>
+        <v>21.922234524615</v>
       </c>
       <c r="S25">
-        <v>0.0001968275224980431</v>
+        <v>0.001038015819065551</v>
       </c>
       <c r="T25">
-        <v>0.0001968275224980431</v>
+        <v>0.000894909183934091</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H26">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I26">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J26">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.3727573016189</v>
+        <v>0.317263</v>
       </c>
       <c r="N26">
-        <v>1.3727573016189</v>
+        <v>0.634526</v>
       </c>
       <c r="O26">
-        <v>0.01187216359129066</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P26">
-        <v>0.01187216359129066</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q26">
-        <v>1.23846816717693</v>
+        <v>0.346691364091</v>
       </c>
       <c r="R26">
-        <v>1.23846816717693</v>
+        <v>2.080148184546</v>
       </c>
       <c r="S26">
-        <v>0.000473508451485161</v>
+        <v>9.849482812232413E-05</v>
       </c>
       <c r="T26">
-        <v>0.000473508451485161</v>
+        <v>8.491578320649018E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.2762389186573</v>
+        <v>1.092757</v>
       </c>
       <c r="H27">
-        <v>12.2762389186573</v>
+        <v>3.278271</v>
       </c>
       <c r="I27">
-        <v>0.5427153545616686</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J27">
-        <v>0.5427153545616686</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.294352522144792</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N27">
-        <v>0.294352522144792</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.002545680356091186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P27">
-        <v>0.002545680356091186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q27">
-        <v>3.613541888158831</v>
+        <v>0.03106307473433333</v>
       </c>
       <c r="R27">
-        <v>3.613541888158831</v>
+        <v>0.279567672609</v>
       </c>
       <c r="S27">
-        <v>0.001381579817056703</v>
+        <v>8.825002650213102E-06</v>
       </c>
       <c r="T27">
-        <v>0.001381579817056703</v>
+        <v>1.141250803917613E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.2762389186573</v>
+        <v>1.092757</v>
       </c>
       <c r="H28">
-        <v>12.2762389186573</v>
+        <v>3.278271</v>
       </c>
       <c r="I28">
-        <v>0.5427153545616686</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J28">
-        <v>0.5427153545616686</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>42.976043056057</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N28">
-        <v>42.976043056057</v>
+        <v>148.173461</v>
       </c>
       <c r="O28">
-        <v>0.3716743032917443</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P28">
-        <v>0.3716743032917443</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q28">
-        <v>527.5841723346588</v>
+        <v>53.97252890732566</v>
       </c>
       <c r="R28">
-        <v>527.5841723346588</v>
+        <v>485.7527601659309</v>
       </c>
       <c r="S28">
-        <v>0.2017133512924402</v>
+        <v>0.01533356613018736</v>
       </c>
       <c r="T28">
-        <v>0.2017133512924402</v>
+        <v>0.0198293931079756</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.2762389186573</v>
+        <v>1.092757</v>
       </c>
       <c r="H29">
-        <v>12.2762389186573</v>
+        <v>3.278271</v>
       </c>
       <c r="I29">
-        <v>0.5427153545616686</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J29">
-        <v>0.5427153545616686</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>70.4144540386251</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N29">
-        <v>70.4144540386251</v>
+        <v>212.597199</v>
       </c>
       <c r="O29">
-        <v>0.6089728435988707</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P29">
-        <v>0.6089728435988707</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q29">
-        <v>864.4246611049751</v>
+        <v>77.43902579588101</v>
       </c>
       <c r="R29">
-        <v>864.4246611049751</v>
+        <v>696.951232162929</v>
       </c>
       <c r="S29">
-        <v>0.3304989127321887</v>
+        <v>0.02200038514291775</v>
       </c>
       <c r="T29">
-        <v>0.3304989127321887</v>
+        <v>0.0284509344937655</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.2762389186573</v>
+        <v>1.092757</v>
       </c>
       <c r="H30">
-        <v>12.2762389186573</v>
+        <v>3.278271</v>
       </c>
       <c r="I30">
-        <v>0.5427153545616686</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J30">
-        <v>0.5427153545616686</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.570626390767208</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N30">
-        <v>0.570626390767208</v>
+        <v>1.841336</v>
       </c>
       <c r="O30">
-        <v>0.004935009162003186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P30">
-        <v>0.004935009162003186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q30">
-        <v>7.005145906349348</v>
+        <v>0.6707109344506667</v>
       </c>
       <c r="R30">
-        <v>7.005145906349348</v>
+        <v>6.036398410056</v>
       </c>
       <c r="S30">
-        <v>0.002678305247121642</v>
+        <v>0.0001905486119669883</v>
       </c>
       <c r="T30">
-        <v>0.002678305247121642</v>
+        <v>0.0002464177804948982</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.2762389186573</v>
+        <v>1.092757</v>
       </c>
       <c r="H31">
-        <v>12.2762389186573</v>
+        <v>3.278271</v>
       </c>
       <c r="I31">
-        <v>0.5427153545616686</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J31">
-        <v>0.5427153545616686</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.3727573016189</v>
+        <v>1.3859455</v>
       </c>
       <c r="N31">
-        <v>1.3727573016189</v>
+        <v>2.771891</v>
       </c>
       <c r="O31">
-        <v>0.01187216359129066</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P31">
-        <v>0.01187216359129066</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q31">
-        <v>16.85229661200492</v>
+        <v>1.5145016467435</v>
       </c>
       <c r="R31">
-        <v>16.85229661200492</v>
+        <v>9.087009880461</v>
       </c>
       <c r="S31">
-        <v>0.006443205472861442</v>
+        <v>0.0004302690947554823</v>
       </c>
       <c r="T31">
-        <v>0.006443205472861442</v>
+        <v>0.0003709498038347069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>17.4676725</v>
+      </c>
+      <c r="H32">
+        <v>34.935345</v>
+      </c>
+      <c r="I32">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J32">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.317263</v>
+      </c>
+      <c r="N32">
+        <v>0.634526</v>
+      </c>
+      <c r="O32">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P32">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q32">
+        <v>5.5418461803675</v>
+      </c>
+      <c r="R32">
+        <v>22.16738472147</v>
+      </c>
+      <c r="S32">
+        <v>0.001574435488022083</v>
+      </c>
+      <c r="T32">
+        <v>0.0009049167022079445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>17.4676725</v>
+      </c>
+      <c r="H33">
+        <v>34.935345</v>
+      </c>
+      <c r="I33">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J33">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P33">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q33">
+        <v>0.4965418810424999</v>
+      </c>
+      <c r="R33">
+        <v>2.979251286255</v>
+      </c>
+      <c r="S33">
+        <v>0.0001410672785491692</v>
+      </c>
+      <c r="T33">
+        <v>0.0001216189587937946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>17.4676725</v>
+      </c>
+      <c r="H34">
+        <v>34.935345</v>
+      </c>
+      <c r="I34">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J34">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N34">
+        <v>148.173461</v>
+      </c>
+      <c r="O34">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P34">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q34">
+        <v>862.7484966465073</v>
+      </c>
+      <c r="R34">
+        <v>5176.490979879044</v>
+      </c>
+      <c r="S34">
+        <v>0.245106379020409</v>
+      </c>
+      <c r="T34">
+        <v>0.2113146501212834</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>17.4676725</v>
+      </c>
+      <c r="H35">
+        <v>34.935345</v>
+      </c>
+      <c r="I35">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J35">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N35">
+        <v>212.597199</v>
+      </c>
+      <c r="O35">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P35">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q35">
+        <v>1237.859415516443</v>
+      </c>
+      <c r="R35">
+        <v>7427.156493098655</v>
+      </c>
+      <c r="S35">
+        <v>0.3516751872102882</v>
+      </c>
+      <c r="T35">
+        <v>0.3031912895889626</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>17.4676725</v>
+      </c>
+      <c r="H36">
+        <v>34.935345</v>
+      </c>
+      <c r="I36">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J36">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.841336</v>
+      </c>
+      <c r="O36">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P36">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q36">
+        <v>10.72128473682</v>
+      </c>
+      <c r="R36">
+        <v>64.32770842092</v>
+      </c>
+      <c r="S36">
+        <v>0.003045911167047141</v>
+      </c>
+      <c r="T36">
+        <v>0.002625984909643998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>17.4676725</v>
+      </c>
+      <c r="H37">
+        <v>34.935345</v>
+      </c>
+      <c r="I37">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J37">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.3859455</v>
+      </c>
+      <c r="N37">
+        <v>2.771891</v>
+      </c>
+      <c r="O37">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P37">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q37">
+        <v>24.20924209684875</v>
+      </c>
+      <c r="R37">
+        <v>96.836968387395</v>
+      </c>
+      <c r="S37">
+        <v>0.006877832522747721</v>
+      </c>
+      <c r="T37">
+        <v>0.003953077513923592</v>
       </c>
     </row>
   </sheetData>
